--- a/biology/Botanique/Amelanchier_lamarckii/Amelanchier_lamarckii.xlsx
+++ b/biology/Botanique/Amelanchier_lamarckii/Amelanchier_lamarckii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amelanchier lamarckii (Amelanchier × lamarckii) est une espèce de plantes à fleurs de la famille des Rosaceae.
 C'est un hybride entre A. confusa et A. grandiflora. Il est originaire de l'est du Canada et s'est naturalisé en Europe.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste ou un petit arbre atteignant 9 m au maximum. Ses feuilles larges, cordiformes à elliptiques, aux bords finement dentés, sont dans un premier temps pourpres et duveteuses, puis deviennent peu à peu grises et glabres.
 Les fleurs blanches de 35 à 40 mm, aux pétales larges, apparaissent en grappes tôt au printemps.
-Les fruits comestibles sont des piridions qui ressemblent à des baies rouges puis noires violacées[1],[2]. On peut en faire de la confiture.
+Les fruits comestibles sont des piridions qui ressemblent à des baies rouges puis noires violacées,. On peut en faire de la confiture.
 </t>
         </is>
       </c>
